--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-017_仕訳ソースの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-017_仕訳ソースの管理.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\10_共通管理\55_構成管理\内部構成管理\チェックイン\20230425_Ito_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1230" windowWidth="14715" windowHeight="8820"/>
+    <workbookView xWindow="410" yWindow="1240" windowWidth="14710" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
-    <sheet name="17" sheetId="3" r:id="rId2"/>
+    <sheet name="手順" sheetId="5" r:id="rId2"/>
+    <sheet name="17" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -412,9 +412,9 @@
     <definedName name="_1998_12_29">#REF!</definedName>
     <definedName name="_1998_12_30">#REF!</definedName>
     <definedName name="_1998_12_31">#REF!</definedName>
-    <definedName name="_Fill" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[2]テーブル仕様!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'17'!$A$8:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
     <definedName name="_FND2">#REF!</definedName>
     <definedName name="_LOV1">[3]Sheet2!$B$2:$B$5</definedName>
     <definedName name="_LOV2">[3]Sheet2!$B$8:$B$11</definedName>
@@ -422,7 +422,7 @@
     <definedName name="_LOV4">[3]Sheet2!$B$23:$B$31</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="①EBSカラム">#REF!</definedName>
     <definedName name="①NO">#REF!</definedName>
@@ -475,7 +475,7 @@
     <definedName name="⑨成項目名">#REF!</definedName>
     <definedName name="⑨説明">#REF!</definedName>
     <definedName name="⑨入力">#REF!</definedName>
-    <definedName name="a" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="a" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aaa">#REF!</definedName>
     <definedName name="AAAAA">#REF!</definedName>
@@ -751,19 +751,19 @@
     <definedName name="VV" hidden="1">#REF!</definedName>
     <definedName name="XX">#REF!</definedName>
     <definedName name="YesNo">[5]LOV!$E$2:$E$3</definedName>
-    <definedName name="Z_059725D5_C79B_4477_8F19_4C6686D8A1D3_.wvu.FilterData" localSheetId="1" hidden="1">'17'!$A$8:$H$61</definedName>
-    <definedName name="Z_59BAF27D_E3C7_4B81_9D74_D634FE61EE7E_.wvu.FilterData" localSheetId="1" hidden="1">'17'!$A$8:$H$61</definedName>
-    <definedName name="Z_82054400_573E_4B0C_BEE9_507A05D96CAB_.wvu.FilterData" localSheetId="1" hidden="1">'17'!$A$8:$H$61</definedName>
-    <definedName name="Z_A53907C3_37B1_44ED_A31A_72E02BCFB871_.wvu.FilterData" localSheetId="1" hidden="1">'17'!$A$8:$H$60</definedName>
+    <definedName name="Z_059725D5_C79B_4477_8F19_4C6686D8A1D3_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
+    <definedName name="Z_59BAF27D_E3C7_4B81_9D74_D634FE61EE7E_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
+    <definedName name="Z_82054400_573E_4B0C_BEE9_507A05D96CAB_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
+    <definedName name="Z_A53907C3_37B1_44ED_A31A_72E02BCFB871_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$60</definedName>
     <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" hidden="1">#REF!</definedName>
     <definedName name="ｚｚ１">#REF!</definedName>
-    <definedName name="あ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="あ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
     <definedName name="あｓｆ">[17]Sheet2!$B$8:$B$11</definedName>
     <definedName name="あああ" hidden="1">#REF!</definedName>
-    <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="い" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="い">#REF!</definedName>
-    <definedName name="う" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="う" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="う">'[18]６（過去）'!#REF!</definedName>
     <definedName name="ええ" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="オプション確認結果">#REF!</definedName>
@@ -789,7 +789,7 @@
     <definedName name="会社名">#REF!</definedName>
     <definedName name="開発_テストシステムHW合計">#REF!</definedName>
     <definedName name="開発単位">#REF!</definedName>
-    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
     <definedName name="基本キー">#REF!</definedName>
     <definedName name="既存システム">#REF!</definedName>
@@ -879,7 +879,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -931,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -983,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="195">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1086,10 +1086,6 @@
   </si>
   <si>
     <t>仕訳ソースの管理</t>
-  </si>
-  <si>
-    <t>ナビ</t>
-    <phoneticPr fontId="36"/>
   </si>
   <si>
     <t>「作成（＋）」ボタンをクリック</t>
@@ -1821,6 +1817,232 @@
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
+  <si>
+    <t>SCSK 劉</t>
+    <rPh sb="5" eb="6">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>会社間振替の仕訳</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シワケ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>会社間振替</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼動_19496対応
+「会社間振替」を追加</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>Intercompany Transfer</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="52"/>
+  </si>
+  <si>
+    <t>説明、その他</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>タスク一覧からの選択</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>設定画面の画面左上より設定種別を確認します。他の名前になっている場合は「▼」をクリックして変更します。</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="55"/>
+  </si>
+  <si>
+    <t>画面左の機能領域から該当のタスク種別を選択し、画面右に表示されたタスク名をクリックします。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>タスク名が見つからない場合は「表示 &gt; すべてのタスク」を選択して非表示のタスクを表示させます。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>「仕訳ソースの管理」をタスク一覧から選択</t>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="52"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>設定および保守 &gt; 設定：財務 &gt; 一般会計</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>仕訳ソースの管理</t>
+    <phoneticPr fontId="36"/>
+  </si>
 </sst>
 </file>
 
@@ -1830,7 +2052,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2143,8 +2365,76 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2234,8 +2524,20 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2559,8 +2861,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
@@ -2724,8 +3086,13 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -2747,9 +3114,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2782,43 +3146,56 @@
     <xf numFmtId="0" fontId="43" fillId="16" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="15" borderId="27" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="15" borderId="28" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="30" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="15" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2827,8 +3204,8 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2836,52 +3213,19 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2911,25 +3255,126 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="54" fillId="15" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="13" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="19" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="65">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
     <cellStyle name="ColumnAttributeAbovePrompt" xfId="2"/>
     <cellStyle name="ColumnAttributePrompt" xfId="3"/>
@@ -2957,6 +3402,7 @@
     <cellStyle name="LineItemValue" xfId="25"/>
     <cellStyle name="Normal - Style1" xfId="26"/>
     <cellStyle name="Normal_#18-Internet" xfId="27"/>
+    <cellStyle name="Normal_CMP_GBL_CONFIGURATION_TEMPLATE_INVENTORY" xfId="63"/>
     <cellStyle name="Output Amounts" xfId="28"/>
     <cellStyle name="Output Column Headings" xfId="29"/>
     <cellStyle name="Output Line Items" xfId="30"/>
@@ -2990,11 +3436,18 @@
     <cellStyle name="選択行" xfId="58"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="61"/>
+    <cellStyle name="標準 2 2 3" xfId="64"/>
+    <cellStyle name="標準 2 3" xfId="62"/>
     <cellStyle name="表旨巧・・ハイパーリンク" xfId="59"/>
     <cellStyle name="未定義" xfId="60"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3007,6 +3460,327 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>683078</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>41052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="5987143"/>
+          <a:ext cx="11747499" cy="5565552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381001" y="2748644"/>
+          <a:ext cx="11747499" cy="2503714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>751114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="478972" y="3125107"/>
+          <a:ext cx="2443842" cy="1159330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1992086</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="6858907"/>
+          <a:ext cx="3706586" cy="4414157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2046514</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335643</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4218214" y="7675335"/>
+          <a:ext cx="7547429" cy="1344386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2231574</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>689429</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7032174" y="7439479"/>
+          <a:ext cx="1086755" cy="235857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6257,123 +7031,6 @@
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
       <sheetData sheetId="37" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="修正履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="CMN_12"/>
-      <sheetName val="1"/>
-      <sheetName val="2"/>
-      <sheetName val="4.2"/>
-      <sheetName val="5"/>
-      <sheetName val="40"/>
-      <sheetName val="42"/>
-      <sheetName val="GL_8.2.1(OLD)"/>
-      <sheetName val="7"/>
-      <sheetName val="8.2.1"/>
-      <sheetName val="8.2.2"/>
-      <sheetName val="6"/>
-      <sheetName val="9"/>
-      <sheetName val="11.1"/>
-      <sheetName val="15.1"/>
-      <sheetName val="13"/>
-      <sheetName val="11.3"/>
-      <sheetName val="CMN_7"/>
-      <sheetName val="10"/>
-      <sheetName val="16"/>
-      <sheetName val="17"/>
-      <sheetName val="18"/>
-      <sheetName val="25"/>
-      <sheetName val="26"/>
-      <sheetName val="36"/>
-      <sheetName val="CMN_5"/>
-      <sheetName val="23"/>
-      <sheetName val="19"/>
-      <sheetName val="38"/>
-      <sheetName val="52"/>
-      <sheetName val="38_old"/>
-      <sheetName val="3"/>
-      <sheetName val="4.1"/>
-      <sheetName val="12"/>
-      <sheetName val="21"/>
-      <sheetName val="22"/>
-      <sheetName val="28"/>
-      <sheetName val="32"/>
-      <sheetName val="34"/>
-      <sheetName val="35"/>
-      <sheetName val="37"/>
-      <sheetName val="46"/>
-      <sheetName val="47"/>
-      <sheetName val="48"/>
-      <sheetName val="49"/>
-      <sheetName val="50"/>
-      <sheetName val="51"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="39">
-          <cell r="E39" t="str">
-            <v>財務 &gt;  一般会計 &gt; 仕訳ソースの管理</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10560,1194 +11217,1219 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.625" style="1"/>
+    <col min="1" max="8" width="2.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" thickBot="1"/>
-    <row r="2" spans="1:37" ht="12" thickBot="1">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:37" ht="11.5" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.5" thickBot="1">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="33" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="67" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="68"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="39"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="36">
+      <c r="A3" s="83">
         <v>44865</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="55" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="69" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="38"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="42"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="39">
+      <c r="A4" s="84">
         <v>45041</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="48" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="70" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="45"/>
+    </row>
+    <row r="5" spans="1:37" ht="28.5" customHeight="1">
+      <c r="A5" s="85">
+        <v>45211</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="41"/>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="73"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="48"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="60"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="53"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="63"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="63"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="56"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="66"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="59"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="63"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="56"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="52"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="50"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="52"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="50"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="52"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="50"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="52"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="50"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="52"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="50"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="52"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="50"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="52"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="50"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="52"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="50"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="52"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="50"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="52"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="50"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="52"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="50"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="52"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="50"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="52"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="50"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="52"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="50"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="52"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="50"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="52"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="50"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="52"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="50"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="52"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="50"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="52"/>
-    </row>
-    <row r="30" spans="1:37" ht="12" thickBot="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="54"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="50"/>
+    </row>
+    <row r="30" spans="1:37" ht="11.5" thickBot="1">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="J28:AK28"/>
     <mergeCell ref="J29:AK29"/>
     <mergeCell ref="J30:AK30"/>
@@ -11764,52 +12446,31 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -11819,27 +12480,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="37" customWidth="1"/>
+    <col min="3" max="5" width="37.6328125" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="9.81640625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="92" customFormat="1" ht="11"/>
+    <row r="2" spans="1:11" s="93" customFormat="1" ht="13.5">
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+    </row>
+    <row r="3" spans="1:11" s="93" customFormat="1" ht="19.5">
+      <c r="B3" s="96" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="93" customFormat="1" ht="13.5">
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+    </row>
+    <row r="5" spans="1:11" s="93" customFormat="1" ht="16">
+      <c r="B5" s="97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="93" customFormat="1" ht="14" thickBot="1"/>
+    <row r="7" spans="1:11" s="28" customFormat="1" ht="13.5">
+      <c r="A7" s="93"/>
+      <c r="B7" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="13.5">
+      <c r="A8" s="93"/>
+      <c r="B8" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="14" thickBot="1">
+      <c r="A9" s="93"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="101"/>
+    </row>
+    <row r="10" spans="1:11" s="35" customFormat="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" s="93" customFormat="1" ht="13.5">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+    </row>
+    <row r="12" spans="1:11" s="93" customFormat="1" ht="16">
+      <c r="B12" s="97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="37" customFormat="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" s="37" customFormat="1">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="36"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="4" customWidth="1"/>
-    <col min="6" max="8" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="4" customWidth="1"/>
+    <col min="6" max="8" width="10.90625" style="4" customWidth="1"/>
     <col min="9" max="9" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="7.875" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="12.5" style="4"/>
+    <col min="10" max="25" width="7.90625" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="12.453125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -11957,13 +12752,8 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11" t="str">
-        <f>[27]目次!E39</f>
-        <v>財務 &gt;  一般会計 &gt; 仕訳ソースの管理</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -11989,9 +12779,9 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -12015,16 +12805,34 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:25" ht="45">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -12042,34 +12850,18 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="47.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5" t="s">
+    <row r="8" spans="1:25">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -12087,845 +12879,864 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <f>LENB(A9)</f>
+        <v>10</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-    </row>
-    <row r="10" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+    </row>
+    <row r="10" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="17" t="b">
+      <c r="E10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="b">
+      <c r="G10" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="17" t="b">
+      <c r="H10" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="18" t="b">
+      <c r="I10" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="19">
-        <f>LENB(A10)</f>
-        <v>10</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="18">
+        <f t="shared" ref="J10:J24" si="0">LENB(A10)</f>
+        <v>12</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-    </row>
-    <row r="11" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+    </row>
+    <row r="11" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="17" t="b">
+      <c r="F11" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="b">
+      <c r="G11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="17" t="b">
+      <c r="H11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="18" t="b">
+      <c r="I11" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="19">
-        <f t="shared" ref="J11:J25" si="0">LENB(A11)</f>
-        <v>12</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-    </row>
-    <row r="12" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+    </row>
+    <row r="12" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="17" t="b">
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="17" t="b">
+      <c r="G12" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="17" t="b">
+      <c r="H12" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="18" t="b">
+      <c r="I12" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-    </row>
-    <row r="13" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+    </row>
+    <row r="13" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="17" t="b">
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="b">
+      <c r="G13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="17" t="b">
+      <c r="H13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="18" t="b">
+      <c r="I13" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-    </row>
-    <row r="14" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="17" t="b">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+    </row>
+    <row r="14" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="17" t="b">
+      <c r="G14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="17" t="b">
+      <c r="H14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="18" t="b">
+      <c r="I14" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-    </row>
-    <row r="15" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="17" t="b">
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+    </row>
+    <row r="15" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="17" t="b">
+      <c r="G15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="17" t="b">
+      <c r="H15" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="18" t="b">
+      <c r="I15" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-    </row>
-    <row r="16" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+    </row>
+    <row r="16" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="17" t="b">
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="17" t="b">
+      <c r="G16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="17" t="b">
+      <c r="H16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="18" t="b">
+      <c r="I16" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-    </row>
-    <row r="17" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+    </row>
+    <row r="17" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="17" t="b">
+      <c r="E17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="17" t="b">
+      <c r="G17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="17" t="b">
+      <c r="H17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="18" t="b">
+      <c r="I17" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-    </row>
-    <row r="18" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+    </row>
+    <row r="18" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="17" t="b">
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="17" t="b">
+      <c r="G18" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="17" t="b">
+      <c r="H18" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="18" t="b">
+      <c r="I18" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-    </row>
-    <row r="19" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+    </row>
+    <row r="19" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="17" t="b">
+      <c r="E19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="17" t="b">
+      <c r="G19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="17" t="b">
+      <c r="H19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="18" t="b">
+      <c r="I19" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-    </row>
-    <row r="20" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="17" t="b">
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+    </row>
+    <row r="20" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="17" t="b">
+      <c r="G20" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="17" t="b">
+      <c r="H20" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="18" t="b">
+      <c r="I20" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-    </row>
-    <row r="21" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+    </row>
+    <row r="21" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17" t="b">
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="17" t="b">
+      <c r="G21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="18" t="b">
+      <c r="H21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="19">
+      <c r="I21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-    </row>
-    <row r="22" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+    </row>
+    <row r="22" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="17" t="b">
+      <c r="D22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="17" t="b">
+      <c r="H22" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="17" t="b">
+      <c r="I22" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-    </row>
-    <row r="23" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="17" t="b">
+      <c r="B23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="17" t="b">
+      <c r="G23" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="17" t="b">
+      <c r="H23" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="18" t="b">
+      <c r="I23" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="21" t="b">
+      <c r="B24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="21" t="b">
+      <c r="G24" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="21" t="b">
+      <c r="H24" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="22" t="b">
+      <c r="I24" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-    </row>
-    <row r="25" spans="1:25" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="17" t="b">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+    </row>
+    <row r="25" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="17" t="b">
+      <c r="G25" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="17" t="b">
+      <c r="H25" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="18" t="b">
+      <c r="I25" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="J25" s="18">
+        <f>LENB(A25)</f>
+        <v>10</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-    </row>
-    <row r="26" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+    </row>
+    <row r="26" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
+    <row r="27" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="A28" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -12944,31 +13755,31 @@
       <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="21" t="b">
+      <c r="E29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="21" t="b">
+      <c r="G29" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="21" t="b">
+      <c r="H29" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="22" t="b">
+      <c r="I29" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="6"/>
@@ -12989,31 +13800,31 @@
       <c r="Y29" s="6"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="21" t="b">
+      <c r="D30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="21" t="b">
+      <c r="G30" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="21" t="b">
+      <c r="H30" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="22" t="b">
+      <c r="I30" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="6"/>
@@ -13034,31 +13845,31 @@
       <c r="Y30" s="6"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="21" t="b">
+      <c r="D31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="21" t="b">
+      <c r="G31" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="21" t="b">
+      <c r="H31" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I31" s="22" t="b">
+      <c r="I31" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="6"/>
@@ -13079,31 +13890,31 @@
       <c r="Y31" s="6"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="21" t="b">
+      <c r="D32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="21" t="b">
+      <c r="G32" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="21" t="b">
+      <c r="H32" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I32" s="22" t="b">
+      <c r="I32" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="6"/>
@@ -13124,31 +13935,31 @@
       <c r="Y32" s="6"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="21" t="b">
+      <c r="F33" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="21" t="b">
+      <c r="G33" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="21" t="b">
+      <c r="H33" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I33" s="22" t="b">
+      <c r="I33" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="6"/>
@@ -13169,31 +13980,31 @@
       <c r="Y33" s="6"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="21" t="b">
+      <c r="D34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G34" s="21" t="b">
+      <c r="G34" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="21" t="b">
+      <c r="H34" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="22" t="b">
+      <c r="I34" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="6"/>
@@ -13214,31 +14025,31 @@
       <c r="Y34" s="6"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="C35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="21" t="b">
+      <c r="D35" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="b">
+      <c r="G35" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="21" t="b">
+      <c r="H35" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="22" t="b">
+      <c r="I35" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="6"/>
@@ -13259,31 +14070,31 @@
       <c r="Y35" s="6"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C36" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="21" t="b">
+      <c r="D36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G36" s="21" t="b">
+      <c r="G36" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="21" t="b">
+      <c r="H36" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I36" s="22" t="b">
+      <c r="I36" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="6"/>
@@ -13304,31 +14115,31 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="C37" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="21" t="b">
+      <c r="D37" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G37" s="21" t="b">
+      <c r="G37" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="21" t="b">
+      <c r="H37" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="22" t="b">
+      <c r="I37" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="6"/>
@@ -13349,31 +14160,31 @@
       <c r="Y37" s="6"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="C38" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="21" t="b">
+      <c r="D38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G38" s="21" t="b">
+      <c r="G38" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="21" t="b">
+      <c r="H38" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="22" t="b">
+      <c r="I38" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J38" s="6"/>
@@ -13394,31 +14205,31 @@
       <c r="Y38" s="6"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="C39" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="21" t="b">
+      <c r="D39" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G39" s="21" t="b">
+      <c r="G39" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="21" t="b">
+      <c r="H39" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="22" t="b">
+      <c r="I39" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="6"/>
@@ -13439,31 +14250,31 @@
       <c r="Y39" s="6"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="21" t="b">
+      <c r="D40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G40" s="21" t="b">
+      <c r="G40" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="H40" s="21" t="b">
+      <c r="H40" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I40" s="22" t="b">
+      <c r="I40" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="6"/>
@@ -13484,31 +14295,31 @@
       <c r="Y40" s="6"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C41" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="21" t="b">
+      <c r="D41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="21" t="b">
+      <c r="G41" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="21" t="b">
+      <c r="H41" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I41" s="22" t="b">
+      <c r="I41" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="6"/>
@@ -13529,31 +14340,31 @@
       <c r="Y41" s="6"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="C42" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="21" t="b">
+      <c r="D42" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G42" s="21" t="b">
+      <c r="G42" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="21" t="b">
+      <c r="H42" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I42" s="22" t="b">
+      <c r="I42" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="6"/>
@@ -13574,31 +14385,31 @@
       <c r="Y42" s="6"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="C43" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="21" t="b">
+      <c r="D43" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G43" s="21" t="b">
+      <c r="G43" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="21" t="b">
+      <c r="H43" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I43" s="22" t="b">
+      <c r="I43" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J43" s="6"/>
@@ -13619,31 +14430,31 @@
       <c r="Y43" s="6"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="21" t="b">
+      <c r="D44" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G44" s="21" t="b">
+      <c r="G44" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="21" t="b">
+      <c r="H44" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="22" t="b">
+      <c r="I44" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J44" s="6"/>
@@ -13664,31 +14475,31 @@
       <c r="Y44" s="6"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="21" t="b">
+      <c r="D45" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G45" s="21" t="b">
+      <c r="G45" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="21" t="b">
+      <c r="H45" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I45" s="22" t="b">
+      <c r="I45" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J45" s="6"/>
@@ -13709,31 +14520,31 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="C46" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="21" t="b">
+      <c r="D46" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G46" s="21" t="b">
+      <c r="G46" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="21" t="b">
+      <c r="H46" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I46" s="22" t="b">
+      <c r="I46" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J46" s="6"/>
@@ -13754,31 +14565,31 @@
       <c r="Y46" s="6"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="C47" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="21" t="b">
+      <c r="D47" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="b">
+      <c r="G47" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="H47" s="21" t="b">
+      <c r="H47" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="22" t="b">
+      <c r="I47" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J47" s="6"/>
@@ -13799,31 +14610,31 @@
       <c r="Y47" s="6"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="C48" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="21" t="b">
+      <c r="D48" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="21" t="b">
+      <c r="G48" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="21" t="b">
+      <c r="H48" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I48" s="22" t="b">
+      <c r="I48" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J48" s="6"/>
@@ -13844,31 +14655,31 @@
       <c r="Y48" s="6"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="21" t="b">
+      <c r="D49" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="b">
+      <c r="G49" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="21" t="b">
+      <c r="H49" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="22" t="b">
+      <c r="I49" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J49" s="6"/>
@@ -13889,31 +14700,31 @@
       <c r="Y49" s="6"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="21" t="b">
+      <c r="D50" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="21" t="b">
+      <c r="G50" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="21" t="b">
+      <c r="H50" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I50" s="22" t="b">
+      <c r="I50" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="6"/>
@@ -13934,31 +14745,31 @@
       <c r="Y50" s="6"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="21" t="b">
+      <c r="D51" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="21" t="b">
+      <c r="G51" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H51" s="21" t="b">
+      <c r="H51" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I51" s="22" t="b">
+      <c r="I51" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="6"/>
@@ -13979,31 +14790,31 @@
       <c r="Y51" s="6"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="21" t="b">
+      <c r="C52" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="21" t="b">
+      <c r="G52" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="21" t="b">
+      <c r="H52" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="22" t="b">
+      <c r="I52" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J52" s="6"/>
@@ -14024,31 +14835,31 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="21" t="b">
+      <c r="D53" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G53" s="21" t="b">
+      <c r="G53" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="21" t="b">
+      <c r="H53" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I53" s="22" t="b">
+      <c r="I53" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J53" s="6"/>
@@ -14069,31 +14880,31 @@
       <c r="Y53" s="6"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="21" t="b">
+      <c r="D54" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="b">
+      <c r="G54" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="21" t="b">
+      <c r="H54" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I54" s="22" t="b">
+      <c r="I54" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="6"/>
@@ -14114,31 +14925,31 @@
       <c r="Y54" s="6"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="21" t="b">
+      <c r="D55" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G55" s="21" t="b">
+      <c r="G55" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H55" s="21" t="b">
+      <c r="H55" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I55" s="22" t="b">
+      <c r="I55" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J55" s="6"/>
@@ -14159,31 +14970,31 @@
       <c r="Y55" s="6"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="21" t="b">
+      <c r="D56" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="21" t="b">
+      <c r="G56" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="21" t="b">
+      <c r="H56" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I56" s="22" t="b">
+      <c r="I56" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J56" s="6"/>
@@ -14204,31 +15015,31 @@
       <c r="Y56" s="6"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="21" t="b">
+      <c r="D57" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G57" s="21" t="b">
+      <c r="G57" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H57" s="21" t="b">
+      <c r="H57" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I57" s="22" t="b">
+      <c r="I57" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J57" s="6"/>
@@ -14249,31 +15060,31 @@
       <c r="Y57" s="6"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="21" t="b">
+      <c r="D58" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G58" s="21" t="b">
+      <c r="G58" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="21" t="b">
+      <c r="H58" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I58" s="22" t="b">
+      <c r="I58" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J58" s="6"/>
@@ -14294,31 +15105,31 @@
       <c r="Y58" s="6"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="21" t="b">
+      <c r="D59" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G59" s="21" t="b">
+      <c r="G59" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="21" t="b">
+      <c r="H59" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="I59" s="22" t="b">
+      <c r="I59" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J59" s="6"/>
@@ -14339,31 +15150,31 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="21" t="b">
+      <c r="D60" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G60" s="21" t="b">
+      <c r="G60" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="21" t="b">
+      <c r="H60" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="I60" s="22" t="b">
+      <c r="I60" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="6"/>
@@ -14385,7 +15196,7 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -40035,7 +40846,7 @@
       <c r="Y1012" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H61"/>
+  <autoFilter ref="A7:H61"/>
   <phoneticPr fontId="36"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目次!A1" display="目次"/>

--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-017_仕訳ソースの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-017_仕訳ソースの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\FBDI\セットアップ定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="410" yWindow="1240" windowWidth="14710" windowHeight="8820"/>
+    <workbookView xWindow="405" yWindow="1245" windowWidth="14715" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -869,7 +869,7 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="205">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1135,10 +1135,6 @@
   </si>
   <si>
     <t>GL部門入力</t>
-  </si>
-  <si>
-    <t>EBS_GL department input</t>
-    <phoneticPr fontId="36"/>
   </si>
   <si>
     <t>EBSアドオンのGL部門入力の仕訳</t>
@@ -1870,7 +1866,7 @@
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="52"/>
+    <phoneticPr fontId="51"/>
   </si>
   <si>
     <t>説明、その他</t>
@@ -1924,7 +1920,7 @@
     <rPh sb="45" eb="47">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="55"/>
+    <phoneticPr fontId="54"/>
   </si>
   <si>
     <t>画面左の機能領域から該当のタスク種別を選択し、画面右に表示されたタスク名をクリックします。</t>
@@ -1996,7 +1992,7 @@
     <rPh sb="18" eb="20">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="52"/>
+    <phoneticPr fontId="51"/>
   </si>
   <si>
     <t>17</t>
@@ -2043,16 +2039,88 @@
     <t>仕訳ソースの管理</t>
     <phoneticPr fontId="36"/>
   </si>
+  <si>
+    <t>SCSK　宇田川</t>
+    <rPh sb="5" eb="8">
+      <t>ウダガワ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.3</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>ERP_GL部門入力</t>
+    <rPh sb="6" eb="10">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>EBS_GL department input</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>ERP_GL department input</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>ERPからのGL部門入力の仕訳</t>
+    <rPh sb="8" eb="10">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シワケ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>STEP4GL部門入力対応
+ERP_GL部門入力のソースを追加</t>
+    <rPh sb="7" eb="11">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2366,13 +2434,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF00FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
@@ -2431,6 +2492,20 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF66CC"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3088,11 +3163,11 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -3146,34 +3221,28 @@
     <xf numFmtId="0" fontId="43" fillId="16" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="27" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="28" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="54" fillId="15" borderId="27" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="15" borderId="28" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="30" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="30" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="15" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="15" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3189,77 +3258,31 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="13" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="19" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3270,6 +3293,33 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3279,13 +3329,61 @@
     <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3306,73 +3404,97 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="54" fillId="15" borderId="11" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="13" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="19" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -3445,6 +3567,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
@@ -11215,1175 +11338,1403 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:AO7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="8" width="2.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.5" thickBot="1"/>
-    <row r="2" spans="1:37" ht="11.5" thickBot="1">
-      <c r="A2" s="65" t="s">
+    <row r="1" spans="1:41" ht="12" thickBot="1"/>
+    <row r="2" spans="1:41" ht="12" thickBot="1">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="38" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="83">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="93"/>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="63">
         <v>44865</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="71" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="40" t="s">
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="42"/>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="84">
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="65"/>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="66">
         <v>45041</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="74" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="43" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="68"/>
+    </row>
+    <row r="5" spans="1:41" ht="28.5" customHeight="1">
+      <c r="A5" s="69">
+        <v>45211</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
-    </row>
-    <row r="5" spans="1:37" ht="28.5" customHeight="1">
-      <c r="A5" s="85">
-        <v>45211</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="48"/>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="84"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="53"/>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="56"/>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="56"/>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="59"/>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="56"/>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="50"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="50"/>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="50"/>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="50"/>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
-      <c r="AK15" s="50"/>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="50"/>
-    </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="50"/>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="50"/>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="50"/>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="50"/>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="50"/>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="50"/>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="50"/>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="50"/>
-    </row>
-    <row r="25" spans="1:37">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="50"/>
-    </row>
-    <row r="26" spans="1:37">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="50"/>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="50"/>
-    </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="50"/>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="50"/>
-    </row>
-    <row r="30" spans="1:37" ht="11.5" thickBot="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="61"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="71"/>
+    </row>
+    <row r="6" spans="1:41" ht="34.5" customHeight="1">
+      <c r="A6" s="75">
+        <v>45594</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="98"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="99"/>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="102"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="102"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="105"/>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="101"/>
+      <c r="AL10" s="101"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="101"/>
+      <c r="AO10" s="102"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="79"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="79"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="79"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="79"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="79"/>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="79"/>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="79"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="79"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="79"/>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="79"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="79"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="79"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="79"/>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="79"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="79"/>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="78"/>
+      <c r="AH26" s="78"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="78"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="79"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="79"/>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="79"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="78"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="78"/>
+      <c r="AO29" s="79"/>
+    </row>
+    <row r="30" spans="1:41" ht="12" thickBot="1">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="116">
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N2:AO2"/>
+    <mergeCell ref="N3:AO3"/>
+    <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="N5:AO5"/>
+    <mergeCell ref="N11:AO11"/>
+    <mergeCell ref="N12:AO12"/>
+    <mergeCell ref="N6:AO6"/>
+    <mergeCell ref="N7:AO7"/>
+    <mergeCell ref="N8:AO8"/>
+    <mergeCell ref="N9:AO9"/>
+    <mergeCell ref="N10:AO10"/>
+    <mergeCell ref="N29:AO29"/>
+    <mergeCell ref="N30:AO30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="N23:AO23"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="N13:AO13"/>
+    <mergeCell ref="N14:AO14"/>
+    <mergeCell ref="N15:AO15"/>
+    <mergeCell ref="N16:AO16"/>
+    <mergeCell ref="N17:AO17"/>
+    <mergeCell ref="N24:AO24"/>
+    <mergeCell ref="N25:AO25"/>
+    <mergeCell ref="N26:AO26"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="N28:AO28"/>
+    <mergeCell ref="N27:AO27"/>
+    <mergeCell ref="N18:AO18"/>
+    <mergeCell ref="N19:AO19"/>
+    <mergeCell ref="N20:AO20"/>
+    <mergeCell ref="N21:AO21"/>
+    <mergeCell ref="N22:AO22"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -12400,21 +12751,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F24:I24"/>
@@ -12423,54 +12759,6 @@
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12485,127 +12773,127 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="37" customWidth="1"/>
-    <col min="3" max="5" width="37.6328125" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="9.81640625" style="36"/>
+    <col min="1" max="1" width="5.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="35" customWidth="1"/>
+    <col min="3" max="5" width="37.625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="9.875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="92" customFormat="1" ht="11"/>
-    <row r="2" spans="1:11" s="93" customFormat="1" ht="13.5">
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-    </row>
-    <row r="3" spans="1:11" s="93" customFormat="1" ht="19.5">
-      <c r="B3" s="96" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="12"/>
+    <row r="2" spans="1:11" s="37" customFormat="1" ht="14.25">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" s="37" customFormat="1" ht="19.5">
+      <c r="B3" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="37" customFormat="1" ht="14.25">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:11" s="37" customFormat="1" ht="16.5">
+      <c r="B5" s="41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="37" customFormat="1" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" s="26" customFormat="1" ht="14.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="93" customFormat="1" ht="13.5">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-    </row>
-    <row r="5" spans="1:11" s="93" customFormat="1" ht="16">
-      <c r="B5" s="97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="93" customFormat="1" ht="14" thickBot="1"/>
-    <row r="7" spans="1:11" s="28" customFormat="1" ht="13.5">
-      <c r="A7" s="93"/>
-      <c r="B7" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="27" t="s">
+    <row r="8" spans="1:11" s="26" customFormat="1" ht="14.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="D8" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" s="33" customFormat="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" s="37" customFormat="1" ht="14.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" s="37" customFormat="1" ht="16.5">
+      <c r="B12" s="41" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="13.5">
-      <c r="A8" s="93"/>
-      <c r="B8" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" ht="14" thickBot="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="101"/>
-    </row>
-    <row r="10" spans="1:11" s="35" customFormat="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" s="93" customFormat="1" ht="13.5">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-    </row>
-    <row r="12" spans="1:11" s="93" customFormat="1" ht="16">
-      <c r="B12" s="97" t="s">
+    <row r="14" spans="1:11">
+      <c r="B14" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="37" t="s">
+    <row r="30" spans="1:11" s="35" customFormat="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="37" customFormat="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37" t="s">
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:11" s="35" customFormat="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="1:11" s="37" customFormat="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36"/>
@@ -12622,19 +12910,21 @@
   </sheetPr>
   <dimension ref="A1:Y1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="4" customWidth="1"/>
-    <col min="6" max="8" width="10.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="10.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="7.90625" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="12.453125" style="4"/>
+    <col min="10" max="25" width="7.875" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="12.5" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -12805,7 +13095,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" ht="45">
+    <row r="7" spans="1:25" ht="47.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -12850,7 +13140,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" ht="15.75">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -12884,16 +13174,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="16" t="b">
         <v>1</v>
@@ -12929,19 +13219,19 @@
     </row>
     <row r="10" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F10" s="16" t="b">
         <v>1</v>
@@ -12977,19 +13267,19 @@
     </row>
     <row r="11" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="16" t="b">
         <v>1</v>
@@ -13025,19 +13315,19 @@
     </row>
     <row r="12" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="16" t="b">
         <v>1</v>
@@ -13073,19 +13363,19 @@
     </row>
     <row r="13" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="16" t="b">
         <v>1</v>
@@ -13121,19 +13411,19 @@
     </row>
     <row r="14" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="16" t="b">
         <v>1</v>
@@ -13169,19 +13459,19 @@
     </row>
     <row r="15" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="16" t="b">
         <v>1</v>
@@ -13217,19 +13507,19 @@
     </row>
     <row r="16" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="16" t="b">
         <v>1</v>
@@ -13265,19 +13555,19 @@
     </row>
     <row r="17" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="16" t="b">
         <v>1</v>
@@ -13313,19 +13603,19 @@
     </row>
     <row r="18" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="16" t="b">
         <v>1</v>
@@ -13361,19 +13651,19 @@
     </row>
     <row r="19" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="16" t="b">
         <v>1</v>
@@ -13409,19 +13699,19 @@
     </row>
     <row r="20" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="16" t="b">
         <v>1</v>
@@ -13457,19 +13747,19 @@
     </row>
     <row r="21" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="16" t="b">
         <v>0</v>
@@ -13505,19 +13795,19 @@
     </row>
     <row r="22" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="C22" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="16" t="b">
         <v>1</v>
@@ -13553,19 +13843,19 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="20" t="b">
         <v>1</v>
@@ -13601,19 +13891,19 @@
     </row>
     <row r="24" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="D24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="16" t="b">
         <v>1</v>
@@ -13648,31 +13938,31 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="A25" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="24" t="b">
+      <c r="B25" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="24" t="b">
+      <c r="G25" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="24" t="b">
+      <c r="H25" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="25" t="b">
+      <c r="I25" s="17" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="18">
@@ -13696,15 +13986,37 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <f>LENB(A26)</f>
+        <v>14</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -13727,7 +14039,7 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -13756,19 +14068,19 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="E29" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" s="20" t="b">
         <v>1</v>
@@ -13801,19 +14113,19 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="D30" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="20" t="b">
         <v>1</v>
@@ -13846,19 +14158,19 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="20" t="b">
         <v>1</v>
@@ -13891,19 +14203,19 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="D32" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="20" t="b">
         <v>0</v>
@@ -13936,19 +14248,19 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="F33" s="20" t="b">
         <v>0</v>
@@ -13981,19 +14293,19 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="20" t="b">
         <v>1</v>
@@ -14026,30 +14338,30 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="20" t="b">
+      <c r="D35" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="20" t="b">
+      <c r="G35" s="118" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="20" t="b">
+      <c r="H35" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="21" t="b">
+      <c r="I35" s="118" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="6"/>
@@ -14071,19 +14383,19 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>97</v>
-      </c>
       <c r="D36" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="20" t="b">
         <v>1</v>
@@ -14116,19 +14428,19 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="C37" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>100</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="20" t="b">
         <v>1</v>
@@ -14161,19 +14473,19 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="C38" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="D38" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" s="20" t="b">
         <v>1</v>
@@ -14206,19 +14518,19 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" s="20" t="b">
         <v>1</v>
@@ -14251,19 +14563,19 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="C40" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" s="20" t="b">
         <v>0</v>
@@ -14296,19 +14608,19 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="D41" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="20" t="b">
         <v>0</v>
@@ -14341,19 +14653,19 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="C42" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="D42" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42" s="20" t="b">
         <v>1</v>
@@ -14386,19 +14698,19 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>118</v>
-      </c>
       <c r="D43" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" s="20" t="b">
         <v>1</v>
@@ -14431,19 +14743,19 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="C44" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D44" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" s="20" t="b">
         <v>1</v>
@@ -14476,19 +14788,19 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="C45" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>124</v>
-      </c>
       <c r="D45" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" s="20" t="b">
         <v>1</v>
@@ -14521,19 +14833,19 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="C46" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>127</v>
-      </c>
       <c r="D46" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" s="20" t="b">
         <v>1</v>
@@ -14566,19 +14878,19 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="C47" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>130</v>
-      </c>
       <c r="D47" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F47" s="20" t="b">
         <v>0</v>
@@ -14611,19 +14923,19 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="C48" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>133</v>
-      </c>
       <c r="D48" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="20" t="b">
         <v>1</v>
@@ -14656,19 +14968,19 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>136</v>
-      </c>
       <c r="D49" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="20" t="b">
         <v>0</v>
@@ -14701,19 +15013,19 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>139</v>
-      </c>
       <c r="D50" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="20" t="b">
         <v>1</v>
@@ -14746,19 +15058,19 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="D51" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" s="20" t="b">
         <v>1</v>
@@ -14791,19 +15103,19 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>144</v>
-      </c>
       <c r="C52" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" s="20" t="b">
         <v>1</v>
@@ -14836,19 +15148,19 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>147</v>
-      </c>
       <c r="D53" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="20" t="b">
         <v>1</v>
@@ -14881,19 +15193,19 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="D54" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="20" t="b">
         <v>0</v>
@@ -14926,19 +15238,19 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>153</v>
-      </c>
       <c r="D55" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" s="20" t="b">
         <v>1</v>
@@ -14971,19 +15283,19 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="D56" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" s="20" t="b">
         <v>1</v>
@@ -15016,19 +15328,19 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D57" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57" s="20" t="b">
         <v>1</v>
@@ -15061,19 +15373,19 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>162</v>
-      </c>
       <c r="D58" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" s="20" t="b">
         <v>1</v>
@@ -15106,19 +15418,19 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="D59" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F59" s="20" t="b">
         <v>1</v>
@@ -15151,19 +15463,19 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="D60" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" s="20" t="b">
         <v>1</v>
@@ -15196,7 +15508,7 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>

--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-017_仕訳ソースの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-017_仕訳ソースの管理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\FBDI\セットアップ定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\07_本番リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -414,7 +414,7 @@
     <definedName name="_1998_12_31">#REF!</definedName>
     <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[2]テーブル仕様!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'17'!$A$7:$H$62</definedName>
     <definedName name="_FND2">#REF!</definedName>
     <definedName name="_LOV1">[3]Sheet2!$B$2:$B$5</definedName>
     <definedName name="_LOV2">[3]Sheet2!$B$8:$B$11</definedName>
@@ -751,10 +751,10 @@
     <definedName name="VV" hidden="1">#REF!</definedName>
     <definedName name="XX">#REF!</definedName>
     <definedName name="YesNo">[5]LOV!$E$2:$E$3</definedName>
-    <definedName name="Z_059725D5_C79B_4477_8F19_4C6686D8A1D3_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
-    <definedName name="Z_59BAF27D_E3C7_4B81_9D74_D634FE61EE7E_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
-    <definedName name="Z_82054400_573E_4B0C_BEE9_507A05D96CAB_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
-    <definedName name="Z_A53907C3_37B1_44ED_A31A_72E02BCFB871_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$60</definedName>
+    <definedName name="Z_059725D5_C79B_4477_8F19_4C6686D8A1D3_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$62</definedName>
+    <definedName name="Z_59BAF27D_E3C7_4B81_9D74_D634FE61EE7E_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$62</definedName>
+    <definedName name="Z_82054400_573E_4B0C_BEE9_507A05D96CAB_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$62</definedName>
+    <definedName name="Z_A53907C3_37B1_44ED_A31A_72E02BCFB871_.wvu.FilterData" localSheetId="2" hidden="1">'17'!$A$7:$H$61</definedName>
     <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" hidden="1">#REF!</definedName>
     <definedName name="ｚｚ１">#REF!</definedName>
     <definedName name="あ" localSheetId="2" hidden="1">#REF!</definedName>
@@ -869,7 +869,7 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -2078,10 +2078,6 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>ERP_GL department input</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
     <t>ERPからのGL部門入力の仕訳</t>
     <rPh sb="8" eb="10">
       <t>ブモン</t>
@@ -2095,8 +2091,35 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
+    <t>ERP_GL department input</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>財務経理専用のERPからのGL部門入力の仕訳</t>
+    <rPh sb="0" eb="6">
+      <t>ザイムケイリセンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>財務経理用_ERP_GL部門入力</t>
+    <rPh sb="0" eb="2">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
     <t>STEP4GL部門入力対応
-ERP_GL部門入力のソースを追加</t>
+ERP_GL部門入力、財務経理用、スプレッドシートのソースを追加</t>
     <rPh sb="7" eb="11">
       <t>ブモンニュウリョク</t>
     </rPh>
@@ -2106,9 +2129,16 @@
     <rPh sb="20" eb="24">
       <t>ブモンニュウリョク</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="25" eb="30">
+      <t>ザイムケイリヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>ZAIKEI_ERP_GL department</t>
     <phoneticPr fontId="36"/>
   </si>
 </sst>
@@ -2120,7 +2150,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2502,8 +2532,15 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo ui"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FFFF66CC"/>
+      <color rgb="FFFF3399"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3281,8 +3318,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3365,15 +3402,6 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3413,9 +3441,6 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3429,15 +3454,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3485,16 +3501,39 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -3567,8 +3606,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FFFF99CC"/>
+      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3965,7 +4005,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で名前は設定。</a:t>
+            <a:t>で名前、ソースキーは設定。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11341,7 +11381,7 @@
   <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:AO7"/>
+      <selection activeCell="N15" sqref="N15:AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -11374,36 +11414,36 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="62"/>
-      <c r="N2" s="92" t="s">
+      <c r="N2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="93"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="89"/>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="63">
@@ -11413,19 +11453,19 @@
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="106" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="94" t="s">
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="90" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="64"/>
@@ -11464,19 +11504,19 @@
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="E4" s="68"/>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="109" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="95" t="s">
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="91" t="s">
         <v>174</v>
       </c>
       <c r="O4" s="67"/>
@@ -11515,19 +11555,19 @@
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
       <c r="E5" s="71"/>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="112" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="96" t="s">
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="92" t="s">
         <v>178</v>
       </c>
       <c r="O5" s="70"/>
@@ -11559,55 +11599,55 @@
       <c r="AO5" s="71"/>
     </row>
     <row r="6" spans="1:41" ht="34.5" customHeight="1">
-      <c r="A6" s="75">
-        <v>45594</v>
-      </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="91" t="s">
+      <c r="A6" s="109">
+        <v>45667</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="115" t="s">
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="99"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="117"/>
+      <c r="AN6" s="117"/>
+      <c r="AO6" s="118"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="57"/>
@@ -11623,34 +11663,34 @@
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
       <c r="M7" s="53"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="101"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="102"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="95"/>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="57"/>
@@ -11666,34 +11706,34 @@
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
       <c r="M8" s="53"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="102"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="95"/>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="72"/>
@@ -11709,34 +11749,34 @@
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
       <c r="M9" s="56"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="105"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="98"/>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="57"/>
@@ -11752,34 +11792,34 @@
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
       <c r="M10" s="53"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="101"/>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="101"/>
-      <c r="AI10" s="101"/>
-      <c r="AJ10" s="101"/>
-      <c r="AK10" s="101"/>
-      <c r="AL10" s="101"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="101"/>
-      <c r="AO10" s="102"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="95"/>
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="51"/>
@@ -11795,34 +11835,34 @@
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
       <c r="M11" s="53"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="79"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="76"/>
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="51"/>
@@ -11838,34 +11878,34 @@
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="53"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="79"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="76"/>
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="51"/>
@@ -11881,34 +11921,34 @@
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="53"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="79"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="76"/>
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="51"/>
@@ -11924,34 +11964,34 @@
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
       <c r="M14" s="53"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="79"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="76"/>
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="51"/>
@@ -11967,34 +12007,34 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
       <c r="M15" s="53"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="79"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="76"/>
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="51"/>
@@ -12010,34 +12050,34 @@
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
       <c r="M16" s="53"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="79"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="76"/>
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="51"/>
@@ -12053,34 +12093,34 @@
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
       <c r="M17" s="53"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="79"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="76"/>
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="51"/>
@@ -12096,34 +12136,34 @@
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
       <c r="M18" s="53"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="79"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="76"/>
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="51"/>
@@ -12139,34 +12179,34 @@
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="53"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="79"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="76"/>
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="51"/>
@@ -12182,34 +12222,34 @@
       <c r="K20" s="52"/>
       <c r="L20" s="52"/>
       <c r="M20" s="53"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="79"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="76"/>
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="51"/>
@@ -12225,34 +12265,34 @@
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
       <c r="M21" s="53"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="79"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="76"/>
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="51"/>
@@ -12268,34 +12308,34 @@
       <c r="K22" s="52"/>
       <c r="L22" s="52"/>
       <c r="M22" s="53"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="79"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="76"/>
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="51"/>
@@ -12311,34 +12351,34 @@
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="53"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="78"/>
-      <c r="AM23" s="78"/>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="79"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="76"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="51"/>
@@ -12354,34 +12394,34 @@
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="53"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="78"/>
-      <c r="AC24" s="78"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="78"/>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="78"/>
-      <c r="AI24" s="78"/>
-      <c r="AJ24" s="78"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="78"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="78"/>
-      <c r="AO24" s="79"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="76"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="51"/>
@@ -12397,34 +12437,34 @@
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="53"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="78"/>
-      <c r="AM25" s="78"/>
-      <c r="AN25" s="78"/>
-      <c r="AO25" s="79"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="76"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="51"/>
@@ -12440,34 +12480,34 @@
       <c r="K26" s="52"/>
       <c r="L26" s="52"/>
       <c r="M26" s="53"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="78"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="79"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="76"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="51"/>
@@ -12483,34 +12523,34 @@
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
       <c r="M27" s="53"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="78"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="79"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="76"/>
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="51"/>
@@ -12526,34 +12566,34 @@
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
       <c r="M28" s="53"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="78"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="79"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="76"/>
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="51"/>
@@ -12569,34 +12609,34 @@
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="78"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="78"/>
-      <c r="AK29" s="78"/>
-      <c r="AL29" s="78"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="78"/>
-      <c r="AO29" s="79"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="76"/>
     </row>
     <row r="30" spans="1:41" ht="12" thickBot="1">
       <c r="A30" s="48"/>
@@ -12612,34 +12652,34 @@
       <c r="K30" s="49"/>
       <c r="L30" s="49"/>
       <c r="M30" s="50"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="80"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="80"/>
-      <c r="AF30" s="80"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="80"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="80"/>
-      <c r="AL30" s="80"/>
-      <c r="AM30" s="80"/>
-      <c r="AN30" s="80"/>
-      <c r="AO30" s="81"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="116">
@@ -12908,7 +12948,7 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1012"/>
+  <dimension ref="A1:Y1013"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -13201,7 +13241,10 @@
         <f>LENB(A9)</f>
         <v>10</v>
       </c>
-      <c r="K9" s="18"/>
+      <c r="K9" s="18">
+        <f>LENB(B9)</f>
+        <v>23</v>
+      </c>
       <c r="L9" s="18"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -13246,10 +13289,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="18">
-        <f t="shared" ref="J10:J24" si="0">LENB(A10)</f>
+        <f t="shared" ref="J10:J27" si="0">LENB(A10)</f>
         <v>12</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="18">
+        <f t="shared" ref="K10:K27" si="1">LENB(B10)</f>
+        <v>20</v>
+      </c>
       <c r="L10" s="18"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -13297,7 +13343,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="18">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="L11" s="18"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -13345,7 +13394,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="L12" s="18"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -13393,7 +13445,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="18">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="L13" s="18"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -13441,7 +13496,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="18">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="L14" s="18"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -13489,7 +13547,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="18">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="L15" s="18"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -13537,7 +13598,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K16" s="18"/>
+      <c r="K16" s="18">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="L16" s="18"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -13585,7 +13649,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="18">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="L17" s="18"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -13633,7 +13700,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K18" s="18"/>
+      <c r="K18" s="18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="L18" s="18"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -13681,7 +13751,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="L19" s="18"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -13729,7 +13802,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="K20" s="18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="L20" s="18"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -13777,7 +13853,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="L21" s="18"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -13825,7 +13904,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="L22" s="18"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -13873,7 +13955,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -13921,7 +14006,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="L24" s="18"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -13966,10 +14054,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="18">
-        <f>LENB(A25)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="18">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="L25" s="18"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -13986,14 +14077,14 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="108" t="s">
         <v>202</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>203</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>55</v>
@@ -14014,8 +14105,12 @@
         <v>0</v>
       </c>
       <c r="J26" s="18">
-        <f>LENB(A26)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -14023,77 +14118,73 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+    <row r="28" spans="1:25" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="21" t="b">
-        <v>0</v>
-      </c>
+      <c r="A29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -14113,13 +14204,13 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>75</v>
@@ -14134,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="21" t="b">
         <v>0</v>
@@ -14158,13 +14249,13 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>75</v>
@@ -14179,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="21" t="b">
         <v>0</v>
@@ -14202,23 +14293,23 @@
       <c r="Y31" s="6"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>82</v>
+      <c r="A32" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="20" t="b">
         <v>0</v>
@@ -14248,19 +14339,19 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F33" s="20" t="b">
         <v>0</v>
@@ -14293,13 +14384,13 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>75</v>
@@ -14308,7 +14399,7 @@
         <v>87</v>
       </c>
       <c r="F34" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="20" t="b">
         <v>0</v>
@@ -14338,30 +14429,30 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="16" t="b">
+        <v>89</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="118" t="b">
+      <c r="H35" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="118" t="b">
+      <c r="I35" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="6"/>
@@ -14382,31 +14473,31 @@
       <c r="Y35" s="6"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="A36" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="20" t="b">
+      <c r="F36" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G36" s="20" t="b">
+      <c r="G36" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="21" t="b">
+      <c r="I36" s="46" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="6"/>
@@ -14428,16 +14519,16 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>22</v>
@@ -14449,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="21" t="b">
         <v>0</v>
@@ -14473,16 +14564,16 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>22</v>
@@ -14518,16 +14609,16 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>22</v>
@@ -14563,25 +14654,25 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20" t="b">
         <v>0</v>
-      </c>
-      <c r="G40" s="20" t="b">
-        <v>1</v>
       </c>
       <c r="H40" s="20" t="b">
         <v>0</v>
@@ -14608,13 +14699,13 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>55</v>
@@ -14626,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="20" t="b">
         <v>0</v>
@@ -14653,13 +14744,13 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>55</v>
@@ -14668,7 +14759,7 @@
         <v>22</v>
       </c>
       <c r="F42" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="20" t="b">
         <v>0</v>
@@ -14698,13 +14789,13 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>55</v>
@@ -14743,13 +14834,13 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>55</v>
@@ -14788,16 +14879,16 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>22</v>
@@ -14809,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="21" t="b">
         <v>0</v>
@@ -14833,13 +14924,13 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>75</v>
@@ -14854,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="21" t="b">
         <v>0</v>
@@ -14878,25 +14969,25 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F47" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20" t="b">
         <v>0</v>
-      </c>
-      <c r="G47" s="20" t="b">
-        <v>1</v>
       </c>
       <c r="H47" s="20" t="b">
         <v>0</v>
@@ -14923,13 +15014,13 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>55</v>
@@ -14938,13 +15029,13 @@
         <v>22</v>
       </c>
       <c r="F48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="20" t="b">
+      <c r="H48" s="20" t="b">
         <v>0</v>
-      </c>
-      <c r="H48" s="20" t="b">
-        <v>1</v>
       </c>
       <c r="I48" s="21" t="b">
         <v>0</v>
@@ -14968,28 +15059,28 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F49" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="20" t="b">
         <v>0</v>
       </c>
       <c r="H49" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="21" t="b">
         <v>0</v>
@@ -15013,22 +15104,22 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F50" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="20" t="b">
         <v>0</v>
@@ -15058,13 +15149,13 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>75</v>
@@ -15103,16 +15194,16 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>22</v>
@@ -15148,16 +15239,16 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>22</v>
@@ -15193,22 +15284,22 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="20" t="b">
         <v>0</v>
@@ -15238,13 +15329,13 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>55</v>
@@ -15253,7 +15344,7 @@
         <v>22</v>
       </c>
       <c r="F55" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="20" t="b">
         <v>0</v>
@@ -15283,16 +15374,16 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>22</v>
@@ -15328,13 +15419,13 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>75</v>
@@ -15373,13 +15464,13 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>75</v>
@@ -15418,16 +15509,16 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>22</v>
@@ -15462,14 +15553,14 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A60" s="20" t="s">
-        <v>165</v>
+      <c r="A60" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>55</v>
@@ -15484,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="21" t="b">
         <v>0</v>
@@ -15507,17 +15598,33 @@
       <c r="Y60" s="6"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A61" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="A61" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -15536,7 +15643,9 @@
       <c r="Y61" s="6"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A62" s="6"/>
+      <c r="A62" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -15619,6 +15728,7 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -15645,7 +15755,6 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -15832,6 +15941,7 @@
       <c r="Y72" s="6"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -17236,7 +17346,6 @@
       <c r="Y126" s="6"/>
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -41157,8 +41266,35 @@
       <c r="X1012" s="6"/>
       <c r="Y1012" s="6"/>
     </row>
+    <row r="1013" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A1013" s="6"/>
+      <c r="B1013" s="6"/>
+      <c r="C1013" s="6"/>
+      <c r="D1013" s="6"/>
+      <c r="E1013" s="6"/>
+      <c r="F1013" s="6"/>
+      <c r="G1013" s="6"/>
+      <c r="H1013" s="6"/>
+      <c r="I1013" s="6"/>
+      <c r="J1013" s="6"/>
+      <c r="K1013" s="6"/>
+      <c r="L1013" s="6"/>
+      <c r="M1013" s="6"/>
+      <c r="N1013" s="6"/>
+      <c r="O1013" s="6"/>
+      <c r="P1013" s="6"/>
+      <c r="Q1013" s="6"/>
+      <c r="R1013" s="6"/>
+      <c r="S1013" s="6"/>
+      <c r="T1013" s="6"/>
+      <c r="U1013" s="6"/>
+      <c r="V1013" s="6"/>
+      <c r="W1013" s="6"/>
+      <c r="X1013" s="6"/>
+      <c r="Y1013" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:H61"/>
+  <autoFilter ref="A7:H62"/>
   <phoneticPr fontId="36"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目次!A1" display="目次"/>
